--- a/10 - Construction/QR.xlsx
+++ b/10 - Construction/QR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99119F03-860C-48DE-BF69-63365BA7BC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0928603A-5DEB-41E4-9F2C-01AB2A64AD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="469" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="469" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR Codes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t xml:space="preserve">Identificador da Peça (ID) </t>
-  </si>
-  <si>
-    <t> #ff0000</t>
   </si>
   <si>
     <t>Y</t>
@@ -235,6 +232,111 @@
 idStep: d34567
 color: white
 coordinates: {x:6, y:2}</t>
+  </si>
+  <si>
+    <t>76371B</t>
+  </si>
+  <si>
+    <t>lightblue</t>
+  </si>
+  <si>
+    <t>lightblue1x2x2</t>
+  </si>
+  <si>
+    <t>76371G</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>green1x2x2</t>
+  </si>
+  <si>
+    <t>3011R</t>
+  </si>
+  <si>
+    <t>red4x2</t>
+  </si>
+  <si>
+    <t>3011B</t>
+  </si>
+  <si>
+    <t>lightblue4x2</t>
+  </si>
+  <si>
+    <t>3437G</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>grey2x2</t>
+  </si>
+  <si>
+    <t>3437BR</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>brown2x2</t>
+  </si>
+  <si>
+    <t>31110BR</t>
+  </si>
+  <si>
+    <t>brown2x2x2</t>
+  </si>
+  <si>
+    <t>31110LB</t>
+  </si>
+  <si>
+    <t>lightblue2x2x2</t>
+  </si>
+  <si>
+    <t>lightgreen2x2x2</t>
+  </si>
+  <si>
+    <t>lightgreen</t>
+  </si>
+  <si>
+    <t>31110G</t>
+  </si>
+  <si>
+    <t>31110Y</t>
+  </si>
+  <si>
+    <t>yellow2x2x2</t>
+  </si>
+  <si>
+    <t>31110O</t>
+  </si>
+  <si>
+    <t>orange2x2x2</t>
+  </si>
+  <si>
+    <t>31110W</t>
+  </si>
+  <si>
+    <t>white2x2x2</t>
+  </si>
+  <si>
+    <t>blue2x2x2</t>
+  </si>
+  <si>
+    <t>31110B</t>
+  </si>
+  <si>
+    <t>red2x2x2</t>
+  </si>
+  <si>
+    <t>31110P</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>purple2x2x2</t>
   </si>
 </sst>
 </file>
@@ -990,6 +1092,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1001,12 +1109,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -3006,6 +3108,56 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2371724</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1646148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D88515-AE3E-7980-9272-FC45EF152643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839095" y="12811124"/>
+          <a:ext cx="1908279" cy="1592174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -3062,8 +3214,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2600477</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1652978</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1978</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3079,7 +3231,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3105,9 +3257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2519843</xdr:colOff>
+      <xdr:colOff>2526193</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1625187</xdr:rowOff>
+      <xdr:rowOff>1631537</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3123,7 +3275,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3167,7 +3319,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3195,7 +3347,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>1763889</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1634636</xdr:rowOff>
+      <xdr:rowOff>1628286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3211,7 +3363,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3237,7 +3389,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1663097</xdr:colOff>
+      <xdr:colOff>1669447</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1590882</xdr:rowOff>
     </xdr:to>
@@ -3255,7 +3407,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3281,7 +3433,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1632857</xdr:colOff>
+      <xdr:colOff>1626507</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1627648</xdr:rowOff>
     </xdr:to>
@@ -3299,7 +3451,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3327,7 +3479,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>2650873</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1624717</xdr:rowOff>
+      <xdr:rowOff>1631067</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3343,7 +3495,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3371,7 +3523,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>1592540</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>5835</xdr:rowOff>
+      <xdr:rowOff>12185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3387,7 +3539,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3431,7 +3583,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3475,7 +3627,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3503,7 +3655,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>2217461</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1556838</xdr:rowOff>
+      <xdr:rowOff>1550488</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3519,7 +3671,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3563,7 +3715,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3607,7 +3759,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3635,6 +3787,1360 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>59929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1578</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1638300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC8E789-D60F-4597-AEA8-D91D7FB9F138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect b="7706"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11201400" y="12813904"/>
+          <a:ext cx="1779578" cy="1578371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85491</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1762126</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1608560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B220DEAD-2D9B-80F1-8BBA-38B5AD64181F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11267841" y="14478000"/>
+          <a:ext cx="1673460" cy="1548235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C7E30F9-ACA5-70F0-A2F0-9279E8ADD437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8375650" y="14420851"/>
+          <a:ext cx="2527300" cy="1737850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2533650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagem 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23FE530A-F6E0-3D53-3683-3AF74F77697A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="16106775"/>
+          <a:ext cx="3076575" cy="1597546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2257425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1590675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>543161</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>122554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagem 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF8C3D9-89B9-AB46-6A63-5D02484FDBBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7896225" y="17649825"/>
+          <a:ext cx="3829286" cy="1827529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1704976</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1628775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagem 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776ADF55-F2A5-DA36-DF20-74CF2F6409CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:srcRect b="8110"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11287126" y="16068675"/>
+          <a:ext cx="1600200" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1631044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Imagem 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B50AF2-02D9-D4D4-D1B6-AF1793EB7C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296650" y="17716500"/>
+          <a:ext cx="1562100" cy="1621519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1543050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2495550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>236106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Imagem 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD15DD10-6E3D-D115-A2E0-2A56BC9919FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="19250025"/>
+          <a:ext cx="2286000" cy="1991881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1606550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1563790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagem 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50C8B62-00A6-800A-0B24-6B9068AD4782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="19456400"/>
+          <a:ext cx="1454150" cy="1462190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88899</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1647995</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1621078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Imagem 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4662F625-98B6-B35A-C475-8E5BF5F309D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11271249" y="21075650"/>
+          <a:ext cx="1559096" cy="1548053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2486025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>8848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Imagem 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFDA0208-F587-1E36-AB8A-E4B23EFD1057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8372475" y="21002625"/>
+          <a:ext cx="2486025" cy="1656673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1625601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Imagem 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4793828E-FF33-0AA1-6548-6461871D2EF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:srcRect l="8870" t="2129" r="8174" b="9139"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11344275" y="22688550"/>
+          <a:ext cx="1514475" cy="1587501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1524001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>420535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Imagem 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA0C56E-ED7F-856D-A1B9-5CEC302BD7FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562975" y="22526626"/>
+          <a:ext cx="2190750" cy="2192184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1621722</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1571625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1024" name="Imagem 1023">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EEB7A6-3584-B352-BC97-FAE0918D63D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:srcRect l="10161" t="4688" r="5882" b="4675"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11445875" y="24361775"/>
+          <a:ext cx="1358197" cy="1508125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1514475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2730500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>172986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Imagem 1026">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A52632D-6620-5202-2F53-CB09FB23F4E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8391525" y="24164925"/>
+          <a:ext cx="2711450" cy="1954161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1701800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1640134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Imagem 1027">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F4E665-9B4F-4F0D-1EAA-8851B9CBFFEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296651" y="25961975"/>
+          <a:ext cx="1587499" cy="1624259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1339850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2657475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>256084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Imagem 1029">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DB5336-0BD7-4192-B164-C9FB519DBADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8734425" y="25638125"/>
+          <a:ext cx="2295525" cy="2218234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1562101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2724150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>227752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Imagem 1031">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A288C8A5-38A0-C093-620D-90FC20AE8429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8715375" y="27508201"/>
+          <a:ext cx="2381250" cy="1961301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1724026</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1593849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Imagem 1032">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92963E1-08E9-24CF-30DE-B767B6CD36F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:srcRect l="13021" r="6078" b="6409"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430001" y="27622500"/>
+          <a:ext cx="1476375" cy="1565274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1381125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>530423</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>295389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1037" name="Imagem 1036">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6D13B4-AEA3-977E-ACF9-547031387D8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="28975050"/>
+          <a:ext cx="3864173" cy="2206739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1619250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1038" name="Imagem 1037">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47AD3DC2-211B-8953-DCB3-C242F4E37629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:srcRect b="8545"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="29251275"/>
+          <a:ext cx="1657350" cy="1609725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85873</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>263623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1042" name="Imagem 1041">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4729450C-1C1F-6496-B239-241D774DB646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8372475" y="30889575"/>
+          <a:ext cx="2889398" cy="1911448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>74044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1043" name="Imagem 1042">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F293F61-6761-DF13-5C35-07B53F2B948E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11229974" y="30927675"/>
+          <a:ext cx="1752601" cy="1683769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1582445</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1046" name="Imagem 1045">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0121FA5-CFFE-B31E-5F24-986C649E2AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="32585362"/>
+          <a:ext cx="1430045" cy="1599863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1638300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2606675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>21623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1048" name="Imagem 1047">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E11D85-5246-D06F-92D5-162602B2CBE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="32527875"/>
+          <a:ext cx="2178050" cy="1678973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1628775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1768475</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1053" name="Imagem 1052">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D64E57C-62CC-F526-88ED-A693077AF78F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11363325" y="34166175"/>
+          <a:ext cx="1587500" cy="1694382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1428749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2270124</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>78826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1055" name="Imagem 1054">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424F9408-5D05-EB8A-7C05-716201383E73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620124" y="33966149"/>
+          <a:ext cx="2022475" cy="1945727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1655737</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1059" name="Imagem 1058">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A40BA8-2820-5A4D-860F-2DB7522B6180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11303000" y="35928300"/>
+          <a:ext cx="1535087" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1581150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2282825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>311358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1061" name="Imagem 1060">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320CC82C-F3F1-A61D-0EC3-140D0F4CC415}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8896350" y="35766375"/>
+          <a:ext cx="1758950" cy="2025858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5096,10 +6602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P40"/>
+  <dimension ref="B1:M40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5118,12 +6624,12 @@
   <sheetData>
     <row r="1" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" t="s">
         <v>0</v>
       </c>
@@ -5132,7 +6638,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="30"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="2:13" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11"/>
@@ -5163,10 +6669,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>2</v>
@@ -5177,10 +6683,10 @@
     </row>
     <row r="8" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="18">
         <v>2</v>
@@ -5189,7 +6695,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="8"/>
@@ -5197,10 +6703,10 @@
     </row>
     <row r="9" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="7">
         <v>2</v>
@@ -5209,7 +6715,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="8"/>
@@ -5217,10 +6723,10 @@
     </row>
     <row r="10" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -5229,7 +6735,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="8"/>
@@ -5237,10 +6743,10 @@
     </row>
     <row r="11" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="7">
         <v>4</v>
@@ -5249,7 +6755,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="8"/>
@@ -5257,10 +6763,10 @@
     </row>
     <row r="12" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="18">
         <v>4</v>
@@ -5269,7 +6775,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="19"/>
@@ -5280,10 +6786,10 @@
     </row>
     <row r="13" spans="2:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D13" s="18">
         <v>1</v>
@@ -5292,138 +6798,337 @@
         <v>2</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="2:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="15"/>
-      <c r="G14"/>
+      <c r="B14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="20"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="2:13" s="10" customFormat="1" ht="130" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="7"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="2:13" s="3" customFormat="1" ht="128.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="7"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="15"/>
-      <c r="G16"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="2:16" ht="130" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="8"/>
-      <c r="M17" s="1" t="s">
+    <row r="16" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="18">
+        <v>4</v>
+      </c>
+      <c r="E16" s="18">
+        <v>2</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
+      <c r="K16" s="16"/>
+      <c r="M16" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="129.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+    <row r="17" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="18">
+        <v>4</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19"/>
+      <c r="K17" s="16"/>
+      <c r="M17" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="23"/>
       <c r="H18" s="8"/>
-      <c r="P18" s="16"/>
-    </row>
-    <row r="19" spans="2:16" ht="130" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="23"/>
       <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="2:16" ht="130" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="23"/>
       <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:16" s="10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:16" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="2:16" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="8"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="8"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="8"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="8"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="8"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="8"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="8"/>
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="2:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="8"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="1"/>
@@ -5450,10 +7155,9 @@
       <c r="D40" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="E5">
@@ -5468,11 +7172,6 @@
           <x14:id>{0929F743-6ED7-473A-8DEC-06EC00427990}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G20">
-    <cfRule type="expression" dxfId="62" priority="1">
-      <formula>G17&gt;F17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D5">
@@ -5548,13 +7247,13 @@
   <sheetData>
     <row r="1" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" t="s">
         <v>0</v>
       </c>
@@ -5589,25 +7288,25 @@
     </row>
     <row r="7" spans="2:17" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>1</v>
@@ -5618,19 +7317,19 @@
         <v>12345</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="8"/>
@@ -5642,19 +7341,19 @@
         <v>23456</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9"/>
       <c r="I9" s="19"/>
@@ -5667,19 +7366,19 @@
         <v>34567</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -5760,11 +7459,11 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="1"/>
@@ -5814,11 +7513,11 @@
     </row>
     <row r="30" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
@@ -5906,7 +7605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1C7DB9-6A79-4D22-A558-4FB1BAC48714}">
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5927,13 +7626,13 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="2:14" ht="95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
@@ -5965,19 +7664,19 @@
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:14" s="1" customFormat="1" ht="130" customHeight="1" x14ac:dyDescent="0.35">
@@ -5985,16 +7684,16 @@
         <v>12345</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="16"/>
     </row>
@@ -6003,16 +7702,16 @@
         <v>23456</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>48</v>
-      </c>
       <c r="F9" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9" s="16"/>
     </row>
@@ -6021,16 +7720,16 @@
         <v>34567</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="F10" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="K10" s="16"/>
     </row>
@@ -6039,7 +7738,7 @@
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="29"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="2:14" s="3" customFormat="1" ht="128.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
@@ -6147,6 +7846,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6434,26 +8153,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FCA663-A0D5-4D37-87D6-2910454B74A5}">
   <ds:schemaRefs>
@@ -6463,6 +8162,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D95769C4-607B-4664-9C36-EC9F8E41992B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FE855E-B5B1-4D66-876A-F04E3BDA8A60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6481,16 +8192,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D95769C4-607B-4664-9C36-EC9F8E41992B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>